--- a/data/my_word_book.xlsx
+++ b/data/my_word_book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\단어장 수정\7차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78888937-3522-4DE7-9218-568FD1DD33F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE106D14-E14B-4970-B32B-0C9B8EB9FD3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{6EA17D54-3CA5-400A-BF38-734DF1548A07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="380">
   <si>
     <t>에서</t>
   </si>
@@ -49,9 +49,6 @@
     <t>취소</t>
   </si>
   <si>
-    <t xml:space="preserve">삭제 </t>
-  </si>
-  <si>
     <t>사건</t>
   </si>
   <si>
@@ -380,191 +377,1132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>불법행위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약위반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위약금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기다리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름답다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나오다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토나오다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬쩍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개돼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속죄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
+  </si>
+  <si>
+    <t>은</t>
+  </si>
+  <si>
+    <t>들</t>
+  </si>
+  <si>
+    <t>는</t>
+  </si>
+  <si>
+    <t>좀</t>
+  </si>
+  <si>
+    <t>걍</t>
+  </si>
+  <si>
+    <t>과</t>
+  </si>
+  <si>
+    <t>도</t>
+  </si>
+  <si>
+    <t>를</t>
+  </si>
+  <si>
+    <t>으로</t>
+  </si>
+  <si>
+    <t>자</t>
+  </si>
+  <si>
+    <t>잘</t>
+  </si>
+  <si>
+    <t>에</t>
+  </si>
+  <si>
+    <t>와</t>
+  </si>
+  <si>
+    <t>한</t>
+  </si>
+  <si>
+    <t>하다</t>
+  </si>
+  <si>
+    <t>의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopwords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_negwords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_negwords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_poswords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_poswords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어오다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흘리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬프다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울컥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윗사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드문드문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따뜻하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닿다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개운하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤아리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값어치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일찍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왈칵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늙다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겁다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유쾌하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두껍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토악질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극혐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어휴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무식하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로메다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자라다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로써</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겪다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>왜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불법행위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약위반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위약금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기다리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아름답다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나오다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심지어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토나오다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸이코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬쩍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개돼지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속죄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이</t>
-  </si>
-  <si>
-    <t>은</t>
-  </si>
-  <si>
-    <t>들</t>
-  </si>
-  <si>
-    <t>는</t>
-  </si>
-  <si>
-    <t>좀</t>
-  </si>
-  <si>
-    <t>걍</t>
-  </si>
-  <si>
-    <t>과</t>
-  </si>
-  <si>
-    <t>도</t>
-  </si>
-  <si>
-    <t>를</t>
-  </si>
-  <si>
-    <t>으로</t>
-  </si>
-  <si>
-    <t>자</t>
-  </si>
-  <si>
-    <t>잘</t>
-  </si>
-  <si>
-    <t>에</t>
-  </si>
-  <si>
-    <t>와</t>
-  </si>
-  <si>
-    <t>한</t>
-  </si>
-  <si>
-    <t>하다</t>
-  </si>
-  <si>
-    <t>의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopwords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_negwords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_negwords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_poswords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_poswords</t>
+    <t>입다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설레다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살짝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어울리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울컥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청춘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감탄사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘쓰다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀팁</t>
+  </si>
+  <si>
+    <t>무한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝내주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발걸음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공황장애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든하다</t>
+  </si>
+  <si>
+    <t>살이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형</t>
+  </si>
+  <si>
+    <t>끼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커엽다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
+  </si>
+  <si>
+    <t>편안하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭉클하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁나다</t>
+  </si>
+  <si>
+    <t>기도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>일어서다</t>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음색</t>
+  </si>
+  <si>
+    <t>희망</t>
+  </si>
+  <si>
+    <t>꽃길</t>
+  </si>
+  <si>
+    <t>캐다</t>
+  </si>
+  <si>
+    <t>웃기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +1510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,29 +1526,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -618,40 +1543,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="메모" xfId="1" builtinId="10"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -964,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14171E7-1E09-4324-8912-FA045EFCBA5C}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,36 +1880,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,516 +1917,1418 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>101</v>
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>41</v>
+      <c r="E29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
       <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
       <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
       <c r="D42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
       <c r="D43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
       <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
       <c r="D48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
       <c r="D49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
       <c r="D50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>363</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
       <c r="D51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
       <c r="D52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
       <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
       <c r="D57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
       <c r="D58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
       <c r="D59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>377</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
       <c r="D60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
